--- a/config_debug/fish_boss_yutu_gd_boss.xlsx
+++ b/config_debug/fish_boss_yutu_gd_boss.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
   <si>
     <t>path|路径</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -49,43 +49,71 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>path_type|没有或normal是正常；random是随机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dead_force_create_index|死亡强制创建标志索引</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10046,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>random</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大鲨鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dead_force_create_delay|死亡延迟刷新时间 0.1s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>章鱼触角</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10049,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90,410,730,1050,1370,1690,2010,2330,2650,2970,3290,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90,390,690,990,1290,1590,1290,1590,1890,2190,2490,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11003,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90,590,1090,1590,2090,2590,3090,3590,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>34,95,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>normal</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>path_type|没有或normal是正常；random是随机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dead_force_create_index|死亡强制创建标志索引</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>宝蟾</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10046,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>34,95,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>random</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大鲨鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>10047,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>dead_force_create_delay|死亡延迟刷新时间 0.1s</t>
+    <t>100,600,1100,1600,2100,2600,3100,3600,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -93,27 +121,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30,31,32,33,34,35,36,37,38,39,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>宝藏鳄鱼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>96,97,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>章鱼触角</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10049,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>60,410,760,1110,1460,1810,2160,2510,2860,3210,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>90,410,730,1050,1370,1690,2010,2330,2650,2970,3290,</t>
+    <t>11001,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>240,540,840,1140,1740,2040,2340,2640,2940,3240,3540,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11002,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>normal</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -121,27 +149,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>11001,</t>
+    <t>240,540,840,1140,1740,2040,2340,2640,2940,3240,3540,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>11004,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>240,540,840,1140,1740,2040,2340,2640,2940,3240,3540,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>60,260,460,660,860,1060,1260,1460,1660,1860,2060,2260,2460,2660,2860,3060,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11002,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11003,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -529,9 +541,9 @@
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G5" sqref="G5:I8"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -567,13 +579,13 @@
         <v>0</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="I1" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>6</v>
@@ -588,17 +600,17 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="4" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H2" s="4">
         <v>1</v>
@@ -607,10 +619,10 @@
         <v>30</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -621,17 +633,17 @@
         <v>2</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="4" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H3" s="4">
         <v>2</v>
@@ -640,10 +652,10 @@
         <v>80</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -654,17 +666,17 @@
         <v>3</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E4" s="6"/>
-      <c r="F4" s="4" t="s">
-        <v>19</v>
+      <c r="F4" t="s">
+        <v>25</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H4" s="4">
         <v>3</v>
@@ -673,10 +685,10 @@
         <v>30</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -687,22 +699,22 @@
         <v>4</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="8"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -713,13 +725,13 @@
         <v>4</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="8"/>
@@ -733,10 +745,10 @@
         <v>4</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>29</v>
@@ -755,13 +767,13 @@
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="8"/>
